--- a/inputs/input_data.xlsx
+++ b/inputs/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Saeed/Documents/Git/offgridders/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayadi\Documents\myGitHub\offgridders\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56866E1-14E4-AC49-88C9-E77F0E0EDE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402B7BB-4E63-4F51-A6F6-CFD3F9C13ECB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="case_definitions" sheetId="6" r:id="rId6"/>
     <sheet name="multicriteria_data" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -1598,23 +1598,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,23 +2004,23 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="1.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" customWidth="1"/>
-    <col min="6" max="6" width="1.1640625" customWidth="1"/>
-    <col min="7" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="3" width="1.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -2029,7 +2029,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -2038,14 +2038,14 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="64" t="s">
         <v>2</v>
@@ -2054,7 +2054,7 @@
       <c r="E6" s="64"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
@@ -2063,7 +2063,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
@@ -2072,7 +2072,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
@@ -2081,7 +2081,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
@@ -2090,7 +2090,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
@@ -2099,7 +2099,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
@@ -2108,14 +2108,14 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6" t="s">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6" t="s">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6" t="s">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="1"/>
@@ -2206,24 +2206,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="9" customWidth="1"/>
-    <col min="4" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="9" customWidth="1"/>
+    <col min="4" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="E3" s="65"/>
       <c r="F3" s="65"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>26</v>
@@ -2257,7 +2257,7 @@
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>28</v>
@@ -2269,7 +2269,7 @@
       <c r="E6" s="65"/>
       <c r="F6" s="65"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>30</v>
@@ -2281,7 +2281,7 @@
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>32</v>
@@ -2293,7 +2293,7 @@
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>34</v>
@@ -2305,12 +2305,12 @@
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
         <v>36</v>
@@ -2319,12 +2319,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>44</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -2399,16 +2399,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" s="18"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="18"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>53</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2443,16 +2443,16 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="18"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" t="s">
         <v>57</v>
@@ -2464,7 +2464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" t="s">
         <v>60</v>
@@ -2473,7 +2473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>62</v>
@@ -2482,10 +2482,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>63</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="D34" s="21"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>67</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>69</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>70</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>71</v>
       </c>
@@ -2552,17 +2552,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>72</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>73</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>74</v>
       </c>
@@ -2586,16 +2586,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>75</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>76</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>77</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>78</v>
       </c>
@@ -2661,20 +2661,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="22" customWidth="1"/>
-    <col min="4" max="1023" width="8.5" customWidth="1"/>
-    <col min="1024" max="1025" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="22" customWidth="1"/>
+    <col min="4" max="1023" width="8.42578125" customWidth="1"/>
+    <col min="1024" max="1025" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>79</v>
       </c>
@@ -2683,14 +2683,14 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="23"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
     </row>
-    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>82</v>
       </c>
@@ -2716,12 +2716,12 @@
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>159</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>160</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>166</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>167</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>168</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>171</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>177</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>178</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>180</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>184</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>192</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>193</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>201</v>
       </c>
@@ -3735,19 +3735,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="18" customWidth="1"/>
-    <col min="5" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="34" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" style="18" customWidth="1"/>
+    <col min="5" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>203</v>
       </c>
@@ -3756,14 +3756,14 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="23"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>204</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>80</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>207</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>209</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>211</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>84</v>
       </c>
@@ -3855,18 +3855,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
       </c>
       <c r="C11" s="18">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="18">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3879,7 +3879,7 @@
     <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3895,34 +3895,34 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="18" customWidth="1"/>
     <col min="4" max="5" width="15" style="18" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="18" customWidth="1"/>
-    <col min="10" max="18" width="6.83203125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" style="18" customWidth="1"/>
-    <col min="21" max="1023" width="6.83203125" style="18" customWidth="1"/>
-    <col min="1024" max="1025" width="6.83203125" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="18" customWidth="1"/>
+    <col min="10" max="18" width="6.85546875" style="18" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="18" customWidth="1"/>
+    <col min="21" max="1023" width="6.85546875" style="18" customWidth="1"/>
+    <col min="1024" max="1025" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>213</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I2" s="9"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>214</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>216</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>218</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>220</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>222</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>224</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>226</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>228</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>230</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>232</v>
       </c>
@@ -4068,11 +4068,11 @@
       <c r="I12" s="9"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I13" s="9"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>234</v>
       </c>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>237</v>
       </c>
@@ -4133,16 +4133,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4157,27 +4157,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMD38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="4" width="13.1640625" style="18" customWidth="1"/>
-    <col min="5" max="1018" width="6.83203125" style="18" customWidth="1"/>
-    <col min="1019" max="1025" width="11.5"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="4" width="13.140625" style="18" customWidth="1"/>
+    <col min="5" max="1018" width="6.85546875" style="18" customWidth="1"/>
+    <col min="1019" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:5" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>242</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="D3" s="67"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>244</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>246</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>248</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>250</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>251</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>253</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>254</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>42</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>256</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>258</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>260</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>262</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="17" spans="1:6" ht="129" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="120.75" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>244</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>268</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>246</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>269</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>271</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>272</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>273</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>274</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>275</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>276</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>277</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>278</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>279</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>280</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>282</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>283</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>42</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>256</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>258</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>260</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>262</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
         <v>286</v>
       </c>
@@ -4766,31 +4766,31 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:8" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>289</v>
       </c>
@@ -4804,35 +4804,35 @@
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>295</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
     </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>297</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>299</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>301</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>303</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0.28622953868737899</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
         <v>304</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0.25807310904584102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>305</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0.23396226376115001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
         <v>306</v>
       </c>
@@ -4914,15 +4914,15 @@
         <v>0.22173508850563001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E16" s="72" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
         <v>301</v>
       </c>
@@ -4951,8 +4951,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="73" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="72" t="s">
         <v>314</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -4972,8 +4972,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="72"/>
       <c r="B19" s="53" t="s">
         <v>317</v>
       </c>
@@ -4991,8 +4991,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="72" t="s">
         <v>319</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5012,8 +5012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="72"/>
       <c r="B21" s="57" t="s">
         <v>322</v>
       </c>
@@ -5031,8 +5031,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="72"/>
       <c r="B22" s="57" t="s">
         <v>324</v>
       </c>
@@ -5058,8 +5058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="72"/>
       <c r="B23" s="53" t="s">
         <v>326</v>
       </c>
@@ -5085,8 +5085,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74" t="s">
+    <row r="24" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="73" t="s">
         <v>328</v>
       </c>
       <c r="B24" s="61" t="s">
@@ -5113,10 +5113,10 @@
       <c r="I24" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="N24" s="70"/>
-    </row>
-    <row r="25" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
+      <c r="N24" s="69"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
       <c r="B25" s="61" t="s">
         <v>331</v>
       </c>
@@ -5133,10 +5133,10 @@
       <c r="I25" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="70"/>
-    </row>
-    <row r="26" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
+      <c r="N25" s="69"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
       <c r="B26" s="62" t="s">
         <v>333</v>
       </c>
@@ -5161,10 +5161,10 @@
       <c r="I26" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="N26" s="70"/>
-    </row>
-    <row r="27" spans="1:14" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71" t="s">
+      <c r="N26" s="69"/>
+    </row>
+    <row r="27" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="70" t="s">
         <v>335</v>
       </c>
       <c r="B27" s="63" t="s">
@@ -5195,8 +5195,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="70"/>
       <c r="B28" s="61" t="s">
         <v>339</v>
       </c>
@@ -5222,8 +5222,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="70"/>
       <c r="B29" s="62" t="s">
         <v>341</v>
       </c>
@@ -5249,20 +5249,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="72" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="72"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="71"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
         <v>343</v>
       </c>
@@ -5270,17 +5270,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="str">
         <f>IF(input_sensitivity!A11 = "","",input_sensitivity!A11)</f>
-        <v>genset_cost_opex</v>
+        <v>fuel_price</v>
       </c>
       <c r="B34" s="43" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="str">
         <f>IF(input_sensitivity!A12 = "","",input_sensitivity!A12)</f>
         <v/>
@@ -5292,6 +5292,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="N24:N26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A32:B32"/>
@@ -5300,11 +5305,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/inputs/input_data.xlsx
+++ b/inputs/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayadi\Documents\myGitHub\offgridders\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402B7BB-4E63-4F51-A6F6-CFD3F9C13ECB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00253A26-447E-4736-859B-6BC05CF50359}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -1598,6 +1598,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1612,9 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A43" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2661,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3735,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3892,7 @@
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4133,16 +4133,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4157,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMD38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D38"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4333,7 +4333,7 @@
         <v>268</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>39</v>
@@ -4808,29 +4808,29 @@
       <c r="A4" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
@@ -4915,12 +4915,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
@@ -4952,7 +4952,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="73" t="s">
         <v>314</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="53" t="s">
         <v>317</v>
       </c>
@@ -4992,7 +4992,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="73" t="s">
         <v>319</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5013,7 +5013,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="57" t="s">
         <v>322</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="57" t="s">
         <v>324</v>
       </c>
@@ -5059,7 +5059,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="53" t="s">
         <v>326</v>
       </c>
@@ -5086,7 +5086,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="74" t="s">
         <v>328</v>
       </c>
       <c r="B24" s="61" t="s">
@@ -5113,10 +5113,10 @@
       <c r="I24" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="N24" s="69"/>
+      <c r="N24" s="70"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="61" t="s">
         <v>331</v>
       </c>
@@ -5133,10 +5133,10 @@
       <c r="I25" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="69"/>
+      <c r="N25" s="70"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="62" t="s">
         <v>333</v>
       </c>
@@ -5161,10 +5161,10 @@
       <c r="I26" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="N26" s="69"/>
+      <c r="N26" s="70"/>
     </row>
     <row r="27" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>335</v>
       </c>
       <c r="B27" s="63" t="s">
@@ -5196,7 +5196,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="61" t="s">
         <v>339</v>
       </c>
@@ -5223,7 +5223,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="62" t="s">
         <v>341</v>
       </c>
@@ -5257,10 +5257,10 @@
       <c r="H30" s="9"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="71"/>
+      <c r="B32" s="72"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
@@ -5292,11 +5292,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="N24:N26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A32:B32"/>
@@ -5305,6 +5300,11 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
